--- a/BEMFSimulation/ExcelResults/PhaseVoltage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>2.937048677523535</v>
+        <v>4.108461421644671</v>
       </c>
       <c r="C2">
-        <v>263.0444155670413</v>
+        <v>266.664392062744</v>
       </c>
       <c r="D2">
-        <v>-277.0106008840248</v>
+        <v>-283.6578015286048</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>16.6929410134089</v>
+        <v>16.76961970308477</v>
       </c>
       <c r="C3">
-        <v>250.9864169374869</v>
+        <v>257.6270673231762</v>
       </c>
       <c r="D3">
-        <v>-273.7413144730139</v>
+        <v>-283.7985126257642</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>49.86279343343747</v>
+        <v>49.61521061629282</v>
       </c>
       <c r="C4">
-        <v>230.4741066272823</v>
+        <v>241.2287280580844</v>
       </c>
       <c r="D4">
-        <v>-262.5914173955306</v>
+        <v>-272.2733691358308</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>89.71113192258052</v>
+        <v>90.4216585655121</v>
       </c>
       <c r="C5">
-        <v>199.8138895600704</v>
+        <v>198.4052484036914</v>
       </c>
       <c r="D5">
-        <v>-253.7544029632141</v>
+        <v>-256.2807085024434</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>113.1028916997059</v>
+        <v>118.1233256429043</v>
       </c>
       <c r="C6">
-        <v>166.1705182217637</v>
+        <v>169.300436697637</v>
       </c>
       <c r="D6">
-        <v>-260.8283105857828</v>
+        <v>-270.995927140004</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>122.3794200619415</v>
+        <v>125.4705907820269</v>
       </c>
       <c r="C7">
-        <v>146.0437013803431</v>
+        <v>151.2851568421486</v>
       </c>
       <c r="D7">
-        <v>-267.405085589911</v>
+        <v>-276.2879139934477</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>132.6708110212413</v>
+        <v>132.8114567950578</v>
       </c>
       <c r="C8">
-        <v>139.1207116583018</v>
+        <v>142.4667864128959</v>
       </c>
       <c r="D8">
-        <v>-276.0643826819158</v>
+        <v>-279.0002434228867</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>139.2326108377182</v>
+        <v>141.6011412328144</v>
       </c>
       <c r="C9">
-        <v>133.1036442250451</v>
+        <v>134.1894070486688</v>
       </c>
       <c r="D9">
-        <v>-277.0368550567572</v>
+        <v>-279.5452812814538</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>145.8804531155922</v>
+        <v>150.6708375869426</v>
       </c>
       <c r="C10">
-        <v>122.5312606639486</v>
+        <v>124.464297909474</v>
       </c>
       <c r="D10">
-        <v>-268.3198860297588</v>
+        <v>-274.2577422447871</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>165.8241751077181</v>
+        <v>171.4942892626348</v>
       </c>
       <c r="C11">
-        <v>113.4522897627193</v>
+        <v>118.8823705636544</v>
       </c>
       <c r="D11">
-        <v>-261.8395979952023</v>
+        <v>-275.1751876649831</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>199.688019867466</v>
+        <v>201.5938831199188</v>
       </c>
       <c r="C12">
-        <v>90.05475654908635</v>
+        <v>88.8085182530013</v>
       </c>
       <c r="D12">
-        <v>-254.5602216447885</v>
+        <v>-259.3767914249558</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>230.0173986347229</v>
+        <v>236.0673302982991</v>
       </c>
       <c r="C13">
-        <v>50.53880380060916</v>
+        <v>49.15413422763083</v>
       </c>
       <c r="D13">
-        <v>-262.8784625746106</v>
+        <v>-268.5835936949445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>250.8587544413412</v>
+        <v>260.58504866704</v>
       </c>
       <c r="C14">
-        <v>17.14004491051835</v>
+        <v>16.90156668959497</v>
       </c>
       <c r="D14">
-        <v>-273.2811179216713</v>
+        <v>-283.4852008638514</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>262.5710799024866</v>
+        <v>265.2178276905984</v>
       </c>
       <c r="C15">
-        <v>3.202820953178032</v>
+        <v>4.480905366107124</v>
       </c>
       <c r="D15">
-        <v>-275.8968880731564</v>
+        <v>-281.6049258788722</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>276.2436186284281</v>
+        <v>279.7531313396623</v>
       </c>
       <c r="C16">
-        <v>-0.008581342928248858</v>
+        <v>0.07761962117436294</v>
       </c>
       <c r="D16">
-        <v>-275.8195541989237</v>
+        <v>-280.7075958633232</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>276.3177847168188</v>
+        <v>282.1359283072608</v>
       </c>
       <c r="C17">
-        <v>-2.97526769806189</v>
+        <v>-3.938284435223705</v>
       </c>
       <c r="D17">
-        <v>-263.1623859270154</v>
+        <v>-266.7140759745135</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>273.1201217891015</v>
+        <v>284.2291933874466</v>
       </c>
       <c r="C18">
-        <v>-16.505356828457</v>
+        <v>-16.34603619000974</v>
       </c>
       <c r="D18">
-        <v>-250.9470107873832</v>
+        <v>-258.2217678691601</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>263.2843284513082</v>
+        <v>273.8268337326448</v>
       </c>
       <c r="C19">
-        <v>-49.64286116893324</v>
+        <v>-49.35839580507196</v>
       </c>
       <c r="D19">
-        <v>-230.898513924395</v>
+        <v>-241.1193649339183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>254.6858945480305</v>
+        <v>258.311568758515</v>
       </c>
       <c r="C20">
-        <v>-89.75792876364075</v>
+        <v>-89.53182249727521</v>
       </c>
       <c r="D20">
-        <v>-199.962795624421</v>
+        <v>-198.6497587669695</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>261.5448274280513</v>
+        <v>272.589594121786</v>
       </c>
       <c r="C21">
-        <v>-113.2928908592308</v>
+        <v>-117.9218232702656</v>
       </c>
       <c r="D21">
-        <v>-166.1886461759401</v>
+        <v>-170.0787109089685</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>267.9323923320137</v>
+        <v>276.1726508167127</v>
       </c>
       <c r="C22">
-        <v>-122.3513621444734</v>
+        <v>-125.6420894618737</v>
       </c>
       <c r="D22">
-        <v>-146.2928173860996</v>
+        <v>-151.9661778878384</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>276.1775515497852</v>
+        <v>279.0083689266805</v>
       </c>
       <c r="C23">
-        <v>-132.6627587899596</v>
+        <v>-133.6030164245311</v>
       </c>
       <c r="D23">
-        <v>-139.3077124025832</v>
+        <v>-142.3991045845452</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>276.7382622385155</v>
+        <v>280.7260140609869</v>
       </c>
       <c r="C24">
-        <v>-139.2589900940489</v>
+        <v>-142.3996657343602</v>
       </c>
       <c r="D24">
-        <v>-133.0171420696837</v>
+        <v>-133.9083801838159</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>268.6666007193137</v>
+        <v>275.2773808944213</v>
       </c>
       <c r="C25">
-        <v>-146.087501354953</v>
+        <v>-150.6539553613245</v>
       </c>
       <c r="D25">
-        <v>-122.4089680905767</v>
+        <v>-124.5517566005217</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>262.5415398298679</v>
+        <v>274.8887093564828</v>
       </c>
       <c r="C26">
-        <v>-165.9813860216737</v>
+        <v>-170.6278169984244</v>
       </c>
       <c r="D26">
-        <v>-113.5178655691982</v>
+        <v>-119.2618872740853</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>255.486147097789</v>
+        <v>258.0808790469779</v>
       </c>
       <c r="C27">
-        <v>-199.7664589672607</v>
+        <v>-200.94147067932</v>
       </c>
       <c r="D27">
-        <v>-90.16836921976568</v>
+        <v>-89.93733076323342</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>264.1155174969934</v>
+        <v>268.7158574707881</v>
       </c>
       <c r="C28">
-        <v>-230.5104260277118</v>
+        <v>-236.7102877534177</v>
       </c>
       <c r="D28">
-        <v>-50.46145560884629</v>
+        <v>-49.47213256880801</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>273.8327081998704</v>
+        <v>285.0967736858601</v>
       </c>
       <c r="C29">
-        <v>-251.2709436844044</v>
+        <v>-261.1713380338255</v>
       </c>
       <c r="D29">
-        <v>-16.95629305530333</v>
+        <v>-16.4894060279519</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>275.7530292618037</v>
+        <v>283.1091405613201</v>
       </c>
       <c r="C30">
-        <v>-262.7117252648461</v>
+        <v>-265.591600565992</v>
       </c>
       <c r="D30">
-        <v>-3.03310319671346</v>
+        <v>-4.081708248241389</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>275.5719956031382</v>
+        <v>279.7849590966401</v>
       </c>
       <c r="C31">
-        <v>-276.0582066317774</v>
+        <v>-279.4982584648096</v>
       </c>
       <c r="D31">
-        <v>0.09934859689586517</v>
+        <v>0.08191488056474849</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>262.7763321118057</v>
+        <v>263.9069946626016</v>
       </c>
       <c r="C32">
-        <v>-276.2933502609072</v>
+        <v>-281.5418475301121</v>
       </c>
       <c r="D32">
-        <v>3.008372548677363</v>
+        <v>3.744301759636692</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>250.5274890738926</v>
+        <v>256.9334845245422</v>
       </c>
       <c r="C33">
-        <v>-273.2418108630598</v>
+        <v>-283.9791015383236</v>
       </c>
       <c r="D33">
-        <v>16.54140644760216</v>
+        <v>16.02972678851844</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>230.5476676811339</v>
+        <v>241.9723092653365</v>
       </c>
       <c r="C34">
-        <v>-263.2285334314238</v>
+        <v>-273.3791324977877</v>
       </c>
       <c r="D34">
-        <v>49.54282311675051</v>
+        <v>49.33271021187846</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>199.8731068898505</v>
+        <v>198.9945134875948</v>
       </c>
       <c r="C35">
-        <v>-254.4835393839607</v>
+        <v>-256.9235980030088</v>
       </c>
       <c r="D35">
-        <v>89.63441056464849</v>
+        <v>89.65156449991518</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>166.2987944197227</v>
+        <v>169.1487213215775</v>
       </c>
       <c r="C36">
-        <v>-261.3256894648777</v>
+        <v>-271.5078912388793</v>
       </c>
       <c r="D36">
-        <v>113.1809559049026</v>
+        <v>117.7865116638238</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>146.280551859775</v>
+        <v>151.1771074748308</v>
       </c>
       <c r="C37">
-        <v>-268.1062504987146</v>
+        <v>-276.412100409314</v>
       </c>
       <c r="D37">
-        <v>122.4345158223314</v>
+        <v>125.7701201208622</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>139.2252588880265</v>
+        <v>142.4642849860319</v>
       </c>
       <c r="C38">
-        <v>-276.3762038031728</v>
+        <v>-278.9325824747058</v>
       </c>
       <c r="D38">
-        <v>132.7405755172055</v>
+        <v>133.3493726068352</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>133.1141059533354</v>
+        <v>134.5301049902031</v>
       </c>
       <c r="C39">
-        <v>-277.1763510915074</v>
+        <v>-280.1774818999054</v>
       </c>
       <c r="D39">
-        <v>139.5272540137404</v>
+        <v>142.2090657406533</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>122.3846821379537</v>
+        <v>124.7374331126144</v>
       </c>
       <c r="C40">
-        <v>-268.1845359815435</v>
+        <v>-274.8009799140767</v>
       </c>
       <c r="D40">
-        <v>145.9861846225092</v>
+        <v>150.6244787590733</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>113.4913611818</v>
+        <v>119.3789341514334</v>
       </c>
       <c r="C41">
-        <v>-261.9724627257448</v>
+        <v>-276.007558941724</v>
       </c>
       <c r="D41">
-        <v>165.8748907300498</v>
+        <v>171.415219844509</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>90.23316008128424</v>
+        <v>89.24328970267848</v>
       </c>
       <c r="C42">
-        <v>-254.886307844091</v>
+        <v>-258.9949520408082</v>
       </c>
       <c r="D42">
-        <v>199.7380602705662</v>
+        <v>201.6986718790942</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>50.69189928542794</v>
+        <v>49.15599446765618</v>
       </c>
       <c r="C43">
-        <v>-263.1287341145847</v>
+        <v>-269.1288324988237</v>
       </c>
       <c r="D43">
-        <v>230.5268192993136</v>
+        <v>237.0746235478067</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>17.19734891703495</v>
+        <v>16.45048092479007</v>
       </c>
       <c r="C44">
-        <v>-273.4952080398517</v>
+        <v>-284.9775222677376</v>
       </c>
       <c r="D44">
-        <v>251.5534682367541</v>
+        <v>260.9960401610862</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>3.210904296360839</v>
+        <v>4.139152538256141</v>
       </c>
       <c r="C45">
-        <v>-276.1893586723728</v>
+        <v>-281.7163895095617</v>
       </c>
       <c r="D45">
-        <v>263.3612310308387</v>
+        <v>264.1095080623105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>0.03881191080390423</v>
+        <v>0.2710204976835717</v>
       </c>
       <c r="C46">
-        <v>-276.2438510786568</v>
+        <v>-281.3315841334446</v>
       </c>
       <c r="D46">
-        <v>276.9949581877428</v>
+        <v>281.405763225816</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>-2.946994457484475</v>
+        <v>-4.119570946008455</v>
       </c>
       <c r="C47">
-        <v>-263.0191793296055</v>
+        <v>-266.646704557701</v>
       </c>
       <c r="D47">
-        <v>277.003837739939</v>
+        <v>283.6579383467889</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>-16.7246906942613</v>
+        <v>-16.80044401023817</v>
       </c>
       <c r="C48">
-        <v>-250.9728824408172</v>
+        <v>-257.626034085621</v>
       </c>
       <c r="D48">
-        <v>273.7363634232935</v>
+        <v>283.7991092620562</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>-49.9249754825366</v>
+        <v>-49.67693993238876</v>
       </c>
       <c r="C49">
-        <v>-230.4322663350611</v>
+        <v>-241.1662171214413</v>
       </c>
       <c r="D49">
-        <v>262.5693665402235</v>
+        <v>272.237758973862</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>-89.75633216423407</v>
+        <v>-90.47222975414881</v>
       </c>
       <c r="C50">
-        <v>-199.7647422337491</v>
+        <v>-198.3566014976324</v>
       </c>
       <c r="D50">
-        <v>253.754308097857</v>
+        <v>256.2853379674061</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>-113.1254338702581</v>
+        <v>-118.1496617864403</v>
       </c>
       <c r="C51">
-        <v>-166.1301200023353</v>
+        <v>-169.2655065677901</v>
       </c>
       <c r="D51">
-        <v>260.8425327717311</v>
+        <v>271.0186575166243</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>-122.3899982337706</v>
+        <v>-125.472262956422</v>
       </c>
       <c r="C52">
-        <v>-146.0250777645662</v>
+        <v>-151.2660451594272</v>
       </c>
       <c r="D52">
-        <v>267.4131658409141</v>
+        <v>276.2835136514531</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>-132.6861563666137</v>
+        <v>-132.8285945615476</v>
       </c>
       <c r="C53">
-        <v>-139.11608818773</v>
+        <v>-142.4611677934784</v>
       </c>
       <c r="D53">
-        <v>276.076913169435</v>
+        <v>279.0122279713708</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>-139.2380137856759</v>
+        <v>-141.6097429876767</v>
       </c>
       <c r="C54">
-        <v>-133.0894566452001</v>
+        <v>-134.171970003853</v>
       </c>
       <c r="D54">
-        <v>277.0269908298725</v>
+        <v>279.5362379067582</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>-145.8987091115991</v>
+        <v>-150.6911568299246</v>
       </c>
       <c r="C55">
-        <v>-122.5198983140716</v>
+        <v>-124.4522079191907</v>
       </c>
       <c r="D55">
-        <v>268.3108710759826</v>
+        <v>274.2524882215467</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>-165.8632871118722</v>
+        <v>-171.5329499639107</v>
       </c>
       <c r="C56">
-        <v>-113.4295698549788</v>
+        <v>-118.863686960779</v>
       </c>
       <c r="D56">
-        <v>261.8244738442684</v>
+        <v>275.1675888612803</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>-199.7381262710553</v>
+        <v>-201.6375075195132</v>
       </c>
       <c r="C57">
-        <v>-90.01023156193111</v>
+        <v>-88.75465858940002</v>
       </c>
       <c r="D57">
-        <v>254.5606783975257</v>
+        <v>259.3611929678218</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>-230.0577314838588</v>
+        <v>-236.1187494885653</v>
       </c>
       <c r="C58">
-        <v>-50.47627403606491</v>
+        <v>-49.09530722868649</v>
       </c>
       <c r="D58">
-        <v>262.8981469070421</v>
+        <v>268.6141915568543</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>-250.8761130812917</v>
+        <v>-260.597591306635</v>
       </c>
       <c r="C59">
-        <v>-17.10840515834211</v>
+        <v>-16.87121638801581</v>
       </c>
       <c r="D59">
-        <v>273.289056983232</v>
+        <v>283.4918154811792</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>-262.5921096356918</v>
+        <v>-265.234079831464</v>
       </c>
       <c r="C60">
-        <v>-3.192244541374345</v>
+        <v>-4.470227603142196</v>
       </c>
       <c r="D60">
-        <v>275.8985453074595</v>
+        <v>281.6025563659009</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>-276.2542915866876</v>
+        <v>-279.767859902024</v>
       </c>
       <c r="C61">
-        <v>0.009568793307712653</v>
+        <v>-0.07484940741320223</v>
       </c>
       <c r="D61">
-        <v>275.8114262615043</v>
+        <v>280.6952144864736</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>-276.3137165519651</v>
+        <v>-282.1360503829074</v>
       </c>
       <c r="C62">
-        <v>2.985362511056078</v>
+        <v>3.948160298125059</v>
       </c>
       <c r="D62">
-        <v>263.1403606989107</v>
+        <v>266.6953111214801</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>-273.1133244550464</v>
+        <v>-284.2340197281493</v>
       </c>
       <c r="C63">
-        <v>16.53673459716831</v>
+        <v>16.37712884289766</v>
       </c>
       <c r="D63">
-        <v>250.9311209744641</v>
+        <v>258.2223929213409</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>-263.2651966167413</v>
+        <v>-273.7917406006562</v>
       </c>
       <c r="C64">
-        <v>49.70541185320809</v>
+        <v>49.41986834410384</v>
       </c>
       <c r="D64">
-        <v>230.8581677655948</v>
+        <v>241.055437234789</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>-254.6851798581465</v>
+        <v>-258.3158918940647</v>
       </c>
       <c r="C65">
-        <v>89.80395960517052</v>
+        <v>89.58245031304492</v>
       </c>
       <c r="D65">
-        <v>199.9127552086329</v>
+        <v>198.6014331596475</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>-261.5580417931317</v>
+        <v>-272.612222913513</v>
       </c>
       <c r="C66">
-        <v>113.3142492942894</v>
+        <v>117.9495408805792</v>
       </c>
       <c r="D66">
-        <v>166.1476731557141</v>
+        <v>170.0461978738704</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>-267.9413606094878</v>
+        <v>-276.1672745033374</v>
       </c>
       <c r="C67">
-        <v>122.3629154167629</v>
+        <v>125.6455162874737</v>
       </c>
       <c r="D67">
-        <v>146.2753700324191</v>
+        <v>151.946432552621</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>-276.1887579723557</v>
+        <v>-279.0200625691967</v>
       </c>
       <c r="C68">
-        <v>132.677651506399</v>
+        <v>133.6189042122366</v>
       </c>
       <c r="D68">
-        <v>139.3021916328425</v>
+        <v>142.3914309316337</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>-276.7285532365448</v>
+        <v>-280.7174112175732</v>
       </c>
       <c r="C69">
-        <v>139.2647941172389</v>
+        <v>142.4078548672547</v>
       </c>
       <c r="D69">
-        <v>133.0029939784605</v>
+        <v>133.8909588127857</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-268.6578851031591</v>
+        <v>-275.2715937734986</v>
       </c>
       <c r="C70">
-        <v>146.105416044688</v>
+        <v>150.6726739761599</v>
       </c>
       <c r="D70">
-        <v>122.3969374572298</v>
+        <v>124.5404011173568</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-262.5271867841668</v>
+        <v>-274.8802550239113</v>
       </c>
       <c r="C71">
-        <v>166.0205558462748</v>
+        <v>170.6669396353566</v>
       </c>
       <c r="D71">
-        <v>113.4957629124833</v>
+        <v>119.2449352093039</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-255.4868321592812</v>
+        <v>-258.062791753713</v>
       </c>
       <c r="C72">
-        <v>199.8169522578215</v>
+        <v>200.9850248682371</v>
       </c>
       <c r="D72">
-        <v>90.1236158230665</v>
+        <v>89.88288902301578</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-264.1361891059062</v>
+        <v>-268.7505279953116</v>
       </c>
       <c r="C73">
-        <v>230.5516386409259</v>
+        <v>236.7629338253758</v>
       </c>
       <c r="D73">
-        <v>50.3991606314198</v>
+        <v>49.41139921250393</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-273.8362605788617</v>
+        <v>-285.1037741963217</v>
       </c>
       <c r="C74">
-        <v>251.2854071860957</v>
+        <v>261.1837226029423</v>
       </c>
       <c r="D74">
-        <v>16.92400790374449</v>
+        <v>16.4590384490837</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-275.7576484224024</v>
+        <v>-283.1043563407618</v>
       </c>
       <c r="C75">
-        <v>262.735538066425</v>
+        <v>265.6065707867409</v>
       </c>
       <c r="D75">
-        <v>3.022738696431437</v>
+        <v>4.071266370839766</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-275.5630955051952</v>
+        <v>-279.7708895704448</v>
       </c>
       <c r="C76">
-        <v>276.0680914635961</v>
+        <v>279.5133498636912</v>
       </c>
       <c r="D76">
-        <v>-0.1004998615534713</v>
+        <v>-0.08448574988328961</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-262.7515741296467</v>
+        <v>-263.8866320292046</v>
       </c>
       <c r="C77">
-        <v>276.2870324156362</v>
+        <v>281.5420387275378</v>
       </c>
       <c r="D77">
-        <v>-3.017885695355105</v>
+        <v>-3.753742691070538</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-250.5142118845826</v>
+        <v>-256.9355306982046</v>
       </c>
       <c r="C78">
-        <v>273.2377215915073</v>
+        <v>283.981891524179</v>
       </c>
       <c r="D78">
-        <v>-16.57300134586048</v>
+        <v>-16.05971962697572</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-230.5065768871775</v>
+        <v>-241.9127062728593</v>
       </c>
       <c r="C79">
-        <v>263.2083727091165</v>
+        <v>273.3457029649119</v>
       </c>
       <c r="D79">
-        <v>-49.60527794371794</v>
+        <v>-49.39516638853114</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-199.824065796769</v>
+        <v>-198.9435082240354</v>
       </c>
       <c r="C80">
-        <v>254.4828777646394</v>
+        <v>256.9263401715199</v>
       </c>
       <c r="D80">
-        <v>-89.6801256724038</v>
+        <v>-89.70263864645112</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-166.2567551471257</v>
+        <v>-169.1156223708401</v>
       </c>
       <c r="C81">
-        <v>261.3380724913818</v>
+        <v>271.533097199673</v>
       </c>
       <c r="D81">
-        <v>-113.202244397574</v>
+        <v>-117.8147534152879</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-146.2628094962679</v>
+        <v>-151.1569529264334</v>
       </c>
       <c r="C82">
-        <v>268.1151777713416</v>
+        <v>276.4055059442855</v>
       </c>
       <c r="D82">
-        <v>-122.4455298665048</v>
+        <v>-125.7723099687941</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-139.219386538795</v>
+        <v>-142.4589189772446</v>
       </c>
       <c r="C83">
-        <v>276.3863602907096</v>
+        <v>278.9446788752606</v>
       </c>
       <c r="D83">
-        <v>-132.7550651316718</v>
+        <v>-133.3657922580284</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-133.0998064150406</v>
+        <v>-134.5126443641842</v>
       </c>
       <c r="C84">
-        <v>277.1666855282363</v>
+        <v>280.1679437649253</v>
       </c>
       <c r="D84">
-        <v>-139.5328365366217</v>
+        <v>-142.2170249275345</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-122.3738447393132</v>
+        <v>-124.7255559529553</v>
       </c>
       <c r="C85">
-        <v>268.176468068641</v>
+        <v>274.7969290391269</v>
       </c>
       <c r="D85">
-        <v>-146.0048200342117</v>
+        <v>-150.6441854835283</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-113.4696194367624</v>
+        <v>-119.3610647880206</v>
       </c>
       <c r="C86">
-        <v>261.9594736065952</v>
+        <v>275.9994508237317</v>
       </c>
       <c r="D86">
-        <v>-165.9154101469202</v>
+        <v>-171.4542024314991</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-90.18805110349115</v>
+        <v>-89.18876827644196</v>
       </c>
       <c r="C87">
-        <v>254.8853067126534</v>
+        <v>258.9789711938702</v>
       </c>
       <c r="D87">
-        <v>-199.7877810816589</v>
+        <v>-201.7439764891776</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-50.63026649593061</v>
+        <v>-49.09578579982532</v>
       </c>
       <c r="C88">
-        <v>263.1494280612473</v>
+        <v>269.161563806892</v>
       </c>
       <c r="D88">
-        <v>-230.5682914566946</v>
+        <v>-237.1258731692433</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-17.1649698852292</v>
+        <v>-16.41988862824795</v>
       </c>
       <c r="C89">
-        <v>273.5010664726787</v>
+        <v>284.9826872831937</v>
       </c>
       <c r="D89">
-        <v>-251.5691379493166</v>
+        <v>-261.0054920002303</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-3.200552926680755</v>
+        <v>-4.129738195104427</v>
       </c>
       <c r="C90">
-        <v>276.1929380446035</v>
+        <v>281.7134617528991</v>
       </c>
       <c r="D90">
-        <v>-263.3839289703406</v>
+        <v>-264.1279605161823</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>4.108461421644671</v>
+        <v>3.096629980663956</v>
       </c>
       <c r="C2">
-        <v>266.664392062744</v>
+        <v>269.4729229370818</v>
       </c>
       <c r="D2">
-        <v>-283.6578015286048</v>
+        <v>-283.9108803727231</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>16.76961970308477</v>
+        <v>17.19234909624112</v>
       </c>
       <c r="C3">
-        <v>257.6270673231762</v>
+        <v>257.5218581759825</v>
       </c>
       <c r="D3">
-        <v>-283.7985126257642</v>
+        <v>-280.927316114101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>49.61521061629282</v>
+        <v>51.15880967580811</v>
       </c>
       <c r="C4">
-        <v>241.2287280580844</v>
+        <v>236.5326134976031</v>
       </c>
       <c r="D4">
-        <v>-272.2733691358308</v>
+        <v>-269.702853892741</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>90.4216585655121</v>
+        <v>91.89426744568352</v>
       </c>
       <c r="C5">
-        <v>198.4052484036914</v>
+        <v>204.6119095864718</v>
       </c>
       <c r="D5">
-        <v>-256.2807085024434</v>
+        <v>-260.0125975602335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>118.1233256429043</v>
+        <v>116.0405519685503</v>
       </c>
       <c r="C6">
-        <v>169.300436697637</v>
+        <v>170.3904195838113</v>
       </c>
       <c r="D6">
-        <v>-270.995927140004</v>
+        <v>-267.5698375730187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>125.4705907820269</v>
+        <v>125.278560392787</v>
       </c>
       <c r="C7">
-        <v>151.2851568421486</v>
+        <v>149.5811793487167</v>
       </c>
       <c r="D7">
-        <v>-276.2879139934477</v>
+        <v>-273.7557985126271</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>132.8114567950578</v>
+        <v>136.3231221530242</v>
       </c>
       <c r="C8">
-        <v>142.4667864128959</v>
+        <v>143.0534280397839</v>
       </c>
       <c r="D8">
-        <v>-279.0002434228867</v>
+        <v>-283.8951873756789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>141.6011412328144</v>
+        <v>142.816159094451</v>
       </c>
       <c r="C9">
-        <v>134.1894070486688</v>
+        <v>136.4647654970197</v>
       </c>
       <c r="D9">
-        <v>-279.5452812814538</v>
+        <v>-284.235793112611</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>150.6708375869426</v>
+        <v>149.7050586039539</v>
       </c>
       <c r="C10">
-        <v>124.464297909474</v>
+        <v>125.5080117354029</v>
       </c>
       <c r="D10">
-        <v>-274.2577422447871</v>
+        <v>-275.0588230976075</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>171.4942892626348</v>
+        <v>170.2821203531135</v>
       </c>
       <c r="C11">
-        <v>118.8823705636544</v>
+        <v>116.4725777183423</v>
       </c>
       <c r="D11">
-        <v>-275.1751876649831</v>
+        <v>-268.8515800381413</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>201.5938831199188</v>
+        <v>204.7511580945055</v>
       </c>
       <c r="C12">
-        <v>88.8085182530013</v>
+        <v>92.1406727484836</v>
       </c>
       <c r="D12">
-        <v>-259.3767914249558</v>
+        <v>-260.9539463821433</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>236.0673302982991</v>
+        <v>235.6915954991007</v>
       </c>
       <c r="C13">
-        <v>49.15413422763083</v>
+        <v>51.73070774211308</v>
       </c>
       <c r="D13">
-        <v>-268.5835936949445</v>
+        <v>-269.6337907108319</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>260.58504866704</v>
+        <v>257.2266548281841</v>
       </c>
       <c r="C14">
-        <v>16.90156668959497</v>
+        <v>17.56369364776189</v>
       </c>
       <c r="D14">
-        <v>-283.4852008638514</v>
+        <v>-280.194836920302</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>265.2178276905984</v>
+        <v>269.1613926939457</v>
       </c>
       <c r="C15">
-        <v>4.480905366107124</v>
+        <v>3.254742284491408</v>
       </c>
       <c r="D15">
-        <v>-281.6049258788722</v>
+        <v>-282.7523528345343</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>279.7531313396623</v>
+        <v>283.7362677773936</v>
       </c>
       <c r="C16">
-        <v>0.07761962117436294</v>
+        <v>-0.05084900277008142</v>
       </c>
       <c r="D16">
-        <v>-280.7075958633232</v>
+        <v>-283.5128534097792</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>282.1359283072608</v>
+        <v>283.0726084825008</v>
       </c>
       <c r="C17">
-        <v>-3.938284435223705</v>
+        <v>-3.073316305030049</v>
       </c>
       <c r="D17">
-        <v>-266.7140759745135</v>
+        <v>-269.34155779748</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>284.2291933874466</v>
+        <v>280.293316636745</v>
       </c>
       <c r="C18">
-        <v>-16.34603619000974</v>
+        <v>-16.99676678363848</v>
       </c>
       <c r="D18">
-        <v>-258.2217678691601</v>
+        <v>-257.4917583849346</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>273.8268337326448</v>
+        <v>270.4454416081364</v>
       </c>
       <c r="C19">
-        <v>-49.35839580507196</v>
+        <v>-50.9237094118803</v>
       </c>
       <c r="D19">
-        <v>-241.1193649339183</v>
+        <v>-237.0299465419823</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>258.311568758515</v>
+        <v>261.0810135758822</v>
       </c>
       <c r="C20">
-        <v>-89.53182249727521</v>
+        <v>-91.97886212257256</v>
       </c>
       <c r="D20">
-        <v>-198.6497587669695</v>
+        <v>-204.7969375871361</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>272.589594121786</v>
+        <v>268.2708607253544</v>
       </c>
       <c r="C21">
-        <v>-117.9218232702656</v>
+        <v>-116.1884794648432</v>
       </c>
       <c r="D21">
-        <v>-170.0787109089685</v>
+        <v>-170.4045871377164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>276.1726508167127</v>
+        <v>274.3039566882812</v>
       </c>
       <c r="C22">
-        <v>-125.6420894618737</v>
+        <v>-125.1993794604733</v>
       </c>
       <c r="D22">
-        <v>-151.9661778878384</v>
+        <v>-149.7735194976724</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>279.0083689266805</v>
+        <v>283.966802026951</v>
       </c>
       <c r="C23">
-        <v>-133.6030164245311</v>
+        <v>-136.376327981021</v>
       </c>
       <c r="D23">
-        <v>-142.3991045845452</v>
+        <v>-143.1749691498496</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>280.7260140609869</v>
+        <v>283.8874439543778</v>
       </c>
       <c r="C24">
-        <v>-142.3996657343602</v>
+        <v>-142.8849078388339</v>
       </c>
       <c r="D24">
-        <v>-133.9083801838159</v>
+        <v>-136.296887204696</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>275.2773808944213</v>
+        <v>275.3789735412319</v>
       </c>
       <c r="C25">
-        <v>-150.6539553613245</v>
+        <v>-149.9131869170428</v>
       </c>
       <c r="D25">
-        <v>-124.5517566005217</v>
+        <v>-125.3418594594508</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>274.8887093564828</v>
+        <v>269.5202111873126</v>
       </c>
       <c r="C26">
-        <v>-170.6278169984244</v>
+        <v>-170.3927507589764</v>
       </c>
       <c r="D26">
-        <v>-119.2618872740853</v>
+        <v>-116.5171968220352</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>258.0808790469779</v>
+        <v>261.9483087270219</v>
       </c>
       <c r="C27">
-        <v>-200.94147067932</v>
+        <v>-204.8162833293005</v>
       </c>
       <c r="D27">
-        <v>-89.93733076323342</v>
+        <v>-92.27052770909128</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>268.7158574707881</v>
+        <v>270.8321659786116</v>
       </c>
       <c r="C28">
-        <v>-236.7102877534177</v>
+        <v>-236.1996080776274</v>
       </c>
       <c r="D28">
-        <v>-49.47213256880801</v>
+        <v>-51.63586123676845</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>285.0967736858601</v>
+        <v>280.6815359222895</v>
       </c>
       <c r="C29">
-        <v>-261.1713380338255</v>
+        <v>-257.6331015116959</v>
       </c>
       <c r="D29">
-        <v>-16.4894060279519</v>
+        <v>-17.35244167723804</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>283.1091405613201</v>
+        <v>282.7816516479809</v>
       </c>
       <c r="C30">
-        <v>-265.591600565992</v>
+        <v>-269.4152286164847</v>
       </c>
       <c r="D30">
-        <v>-4.081708248241389</v>
+        <v>-3.128863979228735</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>279.7849590966401</v>
+        <v>283.2888672939904</v>
       </c>
       <c r="C31">
-        <v>-279.4982584648096</v>
+        <v>-283.5703140191825</v>
       </c>
       <c r="D31">
-        <v>0.08191488056474849</v>
+        <v>0.1068899366030163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>263.9069946626016</v>
+        <v>268.9123224625759</v>
       </c>
       <c r="C32">
-        <v>-281.5418475301121</v>
+        <v>-282.9746767443584</v>
       </c>
       <c r="D32">
-        <v>3.744301759636692</v>
+        <v>3.131119527658988</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>256.9334845245422</v>
+        <v>256.9316363198116</v>
       </c>
       <c r="C33">
-        <v>-283.9791015383236</v>
+        <v>-280.3212280289522</v>
       </c>
       <c r="D33">
-        <v>16.02972678851844</v>
+        <v>17.07974481894914</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>241.9723092653365</v>
+        <v>236.6065818097724</v>
       </c>
       <c r="C34">
-        <v>-273.3791324977877</v>
+        <v>-270.3147611659346</v>
       </c>
       <c r="D34">
-        <v>49.33271021187846</v>
+        <v>50.83345831539354</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>198.9945134875948</v>
+        <v>204.7582084897093</v>
       </c>
       <c r="C35">
-        <v>-256.9235980030088</v>
+        <v>-260.8411151458978</v>
       </c>
       <c r="D35">
-        <v>89.65156449991518</v>
+        <v>91.79902433704646</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>169.1487213215775</v>
+        <v>170.4956811846237</v>
       </c>
       <c r="C36">
-        <v>-271.5078912388793</v>
+        <v>-267.9542505233077</v>
       </c>
       <c r="D36">
-        <v>117.7865116638238</v>
+        <v>116.0759090196334</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>151.1771074748308</v>
+        <v>149.7255879115966</v>
       </c>
       <c r="C37">
-        <v>-276.412100409314</v>
+        <v>-274.4186861555587</v>
       </c>
       <c r="D37">
-        <v>125.7701201208622</v>
+        <v>125.2991322167008</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>142.4642849860319</v>
+        <v>143.0525696478435</v>
       </c>
       <c r="C38">
-        <v>-278.9325824747058</v>
+        <v>-284.0792361880795</v>
       </c>
       <c r="D38">
-        <v>133.3493726068352</v>
+        <v>136.4214108552803</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>134.5301049902031</v>
+        <v>136.4974840984157</v>
       </c>
       <c r="C39">
-        <v>-280.1774818999054</v>
+        <v>-284.2947441873598</v>
       </c>
       <c r="D39">
-        <v>142.2090657406533</v>
+        <v>143.0615526469231</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>124.7374331126144</v>
+        <v>125.3597822979652</v>
       </c>
       <c r="C40">
-        <v>-274.8009799140767</v>
+        <v>-274.7397061900144</v>
       </c>
       <c r="D40">
-        <v>150.6244787590733</v>
+        <v>149.7126929316145</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>119.3789341514334</v>
+        <v>116.4755241109933</v>
       </c>
       <c r="C41">
-        <v>-276.007558941724</v>
+        <v>-268.925435555844</v>
       </c>
       <c r="D41">
-        <v>171.415219844509</v>
+        <v>170.2859028063247</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>89.24328970267848</v>
+        <v>92.26482371740009</v>
       </c>
       <c r="C42">
-        <v>-258.9949520408082</v>
+        <v>-261.3649355596021</v>
       </c>
       <c r="D42">
-        <v>201.6986718790942</v>
+        <v>204.8876799261296</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>49.15599446765618</v>
+        <v>51.88771837272344</v>
       </c>
       <c r="C43">
-        <v>-269.1288324988237</v>
+        <v>-269.8704405976835</v>
       </c>
       <c r="D43">
-        <v>237.0746235478067</v>
+        <v>236.2365275845985</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>16.45048092479007</v>
+        <v>17.62938221166855</v>
       </c>
       <c r="C44">
-        <v>-284.9775222677376</v>
+        <v>-280.2476408813165</v>
       </c>
       <c r="D44">
-        <v>260.9960401610862</v>
+        <v>257.8225871096577</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>4.139152538256141</v>
+        <v>3.275667315427166</v>
       </c>
       <c r="C45">
-        <v>-281.7163895095617</v>
+        <v>-283.0476572029073</v>
       </c>
       <c r="D45">
-        <v>264.1095080623105</v>
+        <v>269.9758055321297</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>0.2710204976835717</v>
+        <v>-0.01492387481261126</v>
       </c>
       <c r="C46">
-        <v>-281.3315841334446</v>
+        <v>-284.0246151644607</v>
       </c>
       <c r="D46">
-        <v>281.405763225816</v>
+        <v>284.575350684835</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>-4.119570946008455</v>
+        <v>-3.107058504326354</v>
       </c>
       <c r="C47">
-        <v>-266.646704557701</v>
+        <v>-269.4489638569359</v>
       </c>
       <c r="D47">
-        <v>283.6579383467889</v>
+        <v>283.9063026528144</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>-16.80044401023817</v>
+        <v>-17.22439559435352</v>
       </c>
       <c r="C48">
-        <v>-257.626034085621</v>
+        <v>-257.5064593608212</v>
       </c>
       <c r="D48">
-        <v>283.7991092620562</v>
+        <v>280.9202456809423</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>-49.67693993238876</v>
+        <v>-51.22255480717153</v>
       </c>
       <c r="C49">
-        <v>-241.1662171214413</v>
+        <v>-236.4894087036668</v>
       </c>
       <c r="D49">
-        <v>272.237758973862</v>
+        <v>269.6808901673863</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>-90.47222975414881</v>
+        <v>-91.94089573954568</v>
       </c>
       <c r="C50">
-        <v>-198.3566014976324</v>
+        <v>-204.5624605612528</v>
       </c>
       <c r="D50">
-        <v>256.2853379674061</v>
+        <v>260.0126961197313</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>-118.1496617864403</v>
+        <v>-116.0626597191983</v>
       </c>
       <c r="C51">
-        <v>-169.2655065677901</v>
+        <v>-170.3473650969268</v>
       </c>
       <c r="D51">
-        <v>271.0186575166243</v>
+        <v>267.5827692565064</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>-125.472262956422</v>
+        <v>-125.2913074434431</v>
       </c>
       <c r="C52">
-        <v>-151.2660451594272</v>
+        <v>-149.5646091207742</v>
       </c>
       <c r="D52">
-        <v>276.2835136514531</v>
+        <v>273.7666093045252</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>-132.8285945615476</v>
+        <v>-136.3382456474338</v>
       </c>
       <c r="C53">
-        <v>-142.4611677934784</v>
+        <v>-143.0483688725859</v>
       </c>
       <c r="D53">
-        <v>279.0122279713708</v>
+        <v>283.9088047498755</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>-141.6097429876767</v>
+        <v>-142.821015294648</v>
       </c>
       <c r="C54">
-        <v>-134.171970003853</v>
+        <v>-136.4485980346991</v>
       </c>
       <c r="D54">
-        <v>279.5362379067582</v>
+        <v>284.2229205393553</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>-150.6911568299246</v>
+        <v>-149.7238864291228</v>
       </c>
       <c r="C55">
-        <v>-124.4522079191907</v>
+        <v>-125.4966678691932</v>
       </c>
       <c r="D55">
-        <v>274.2524882215467</v>
+        <v>275.0500124687579</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>-171.5329499639107</v>
+        <v>-170.322461904216</v>
       </c>
       <c r="C56">
-        <v>-118.863686960779</v>
+        <v>-116.4492960861618</v>
       </c>
       <c r="D56">
-        <v>275.1675888612803</v>
+        <v>268.8368599953857</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>-201.6375075195132</v>
+        <v>-204.8022406304517</v>
       </c>
       <c r="C57">
-        <v>-88.75465858940002</v>
+        <v>-92.09466888546071</v>
       </c>
       <c r="D57">
-        <v>259.3611929678218</v>
+        <v>260.9536407177264</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>-236.1187494885653</v>
+        <v>-235.7330727519103</v>
       </c>
       <c r="C58">
-        <v>-49.09530722868649</v>
+        <v>-51.66738791618108</v>
       </c>
       <c r="D58">
-        <v>268.6141915568543</v>
+        <v>269.6546675824051</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>-260.597591306635</v>
+        <v>-257.2433228582</v>
       </c>
       <c r="C59">
-        <v>-16.87121638801581</v>
+        <v>-17.53094874793248</v>
       </c>
       <c r="D59">
-        <v>283.4918154811792</v>
+        <v>280.2013542847262</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>-265.234079831464</v>
+        <v>-269.1863843067552</v>
       </c>
       <c r="C60">
-        <v>-4.470227603142196</v>
+        <v>-3.243861666432091</v>
       </c>
       <c r="D60">
-        <v>281.6025563659009</v>
+        <v>282.7574506521519</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>-279.767859902024</v>
+        <v>-283.7459601659185</v>
       </c>
       <c r="C61">
-        <v>-0.07484940741320223</v>
+        <v>0.05182696179051316</v>
       </c>
       <c r="D61">
-        <v>280.6952144864736</v>
+        <v>283.503655066136</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>-282.1360503829074</v>
+        <v>-283.0658863887889</v>
       </c>
       <c r="C62">
-        <v>3.948160298125059</v>
+        <v>3.083227286009294</v>
       </c>
       <c r="D62">
-        <v>266.6953111214801</v>
+        <v>269.3161843929954</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>-284.2340197281493</v>
+        <v>-280.2883551406113</v>
       </c>
       <c r="C63">
-        <v>16.37712884289766</v>
+        <v>17.02916411617128</v>
       </c>
       <c r="D63">
-        <v>258.2223929213409</v>
+        <v>257.4774052343917</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>-273.7917406006562</v>
+        <v>-270.4250763595569</v>
       </c>
       <c r="C64">
-        <v>49.41986834410384</v>
+        <v>50.98770115649909</v>
       </c>
       <c r="D64">
-        <v>241.055437234789</v>
+        <v>236.9869468531666</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>-258.3158918940647</v>
+        <v>-261.0801258740085</v>
       </c>
       <c r="C65">
-        <v>89.58245031304492</v>
+        <v>92.02567423717944</v>
       </c>
       <c r="D65">
-        <v>198.6014331596475</v>
+        <v>204.7462716569248</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>-272.612222913513</v>
+        <v>-268.2864384042225</v>
       </c>
       <c r="C66">
-        <v>117.9495408805792</v>
+        <v>116.2118760494269</v>
       </c>
       <c r="D66">
-        <v>170.0461978738704</v>
+        <v>170.3641909019582</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>-276.1672745033374</v>
+        <v>-274.3105236427133</v>
       </c>
       <c r="C67">
-        <v>125.6455162874737</v>
+        <v>125.2095401507492</v>
       </c>
       <c r="D67">
-        <v>151.946432552621</v>
+        <v>149.7536952797746</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>-279.0200625691967</v>
+        <v>-283.980169899363</v>
       </c>
       <c r="C68">
-        <v>133.6189042122366</v>
+        <v>136.3923124591954</v>
       </c>
       <c r="D68">
-        <v>142.3914309316337</v>
+        <v>143.1706405321887</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>-280.7174112175732</v>
+        <v>-283.8748928222698</v>
       </c>
       <c r="C69">
-        <v>142.4078548672547</v>
+        <v>142.8899562606112</v>
       </c>
       <c r="D69">
-        <v>133.8909588127857</v>
+        <v>136.2802575254768</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-275.2715937734986</v>
+        <v>-275.3718559646949</v>
       </c>
       <c r="C70">
-        <v>150.6726739761599</v>
+        <v>149.9325927332251</v>
       </c>
       <c r="D70">
-        <v>124.5404011173568</v>
+        <v>125.3313300110354</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-274.8802550239113</v>
+        <v>-269.5068133635779</v>
       </c>
       <c r="C71">
-        <v>170.6669396353566</v>
+        <v>170.4338631495905</v>
       </c>
       <c r="D71">
-        <v>119.2449352093039</v>
+        <v>116.4949263878223</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-258.062791753713</v>
+        <v>-261.9476800216582</v>
       </c>
       <c r="C72">
-        <v>200.9850248682371</v>
+        <v>204.8667773188579</v>
       </c>
       <c r="D72">
-        <v>89.88288902301578</v>
+        <v>92.22389978672197</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-268.7505279953116</v>
+        <v>-270.8529717150944</v>
       </c>
       <c r="C73">
-        <v>236.7629338253758</v>
+        <v>236.2417719987264</v>
       </c>
       <c r="D73">
-        <v>49.41139921250393</v>
+        <v>51.57190024275948</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-285.1037741963217</v>
+        <v>-280.6870537898038</v>
       </c>
       <c r="C74">
-        <v>261.1837226029423</v>
+        <v>257.649692641776</v>
       </c>
       <c r="D74">
-        <v>16.4590384490837</v>
+        <v>17.32007451225148</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-283.1043563407618</v>
+        <v>-282.7851055817984</v>
       </c>
       <c r="C75">
-        <v>265.6065707867409</v>
+        <v>269.438184455571</v>
       </c>
       <c r="D75">
-        <v>4.071266370839766</v>
+        <v>3.117925965230306</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-279.7708895704448</v>
+        <v>-283.2802528201969</v>
       </c>
       <c r="C76">
-        <v>279.5133498636912</v>
+        <v>283.580854898941</v>
       </c>
       <c r="D76">
-        <v>-0.08448574988328961</v>
+        <v>-0.1080695682287303</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-263.8866320292046</v>
+        <v>-268.8882757578606</v>
       </c>
       <c r="C77">
-        <v>281.5420387275378</v>
+        <v>282.969945419099</v>
       </c>
       <c r="D77">
-        <v>-3.753742691070538</v>
+        <v>-3.141692837505539</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-256.9355306982046</v>
+        <v>-256.9165992346736</v>
       </c>
       <c r="C78">
-        <v>283.981891524179</v>
+        <v>280.3155186103671</v>
       </c>
       <c r="D78">
-        <v>-16.05971962697572</v>
+        <v>-17.11159980247346</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-241.9127062728593</v>
+        <v>-236.5631601611634</v>
       </c>
       <c r="C79">
-        <v>273.3457029649119</v>
+        <v>270.2932762071779</v>
       </c>
       <c r="D79">
-        <v>-49.39516638853114</v>
+        <v>-50.89680056955537</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-198.9435082240354</v>
+        <v>-204.7071407266832</v>
       </c>
       <c r="C80">
-        <v>256.9263401715199</v>
+        <v>260.8386434000143</v>
       </c>
       <c r="D80">
-        <v>-89.70263864645112</v>
+        <v>-91.84515211669631</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-169.1156223708401</v>
+        <v>-170.4547196730078</v>
       </c>
       <c r="C81">
-        <v>271.533097199673</v>
+        <v>267.9696522735261</v>
       </c>
       <c r="D81">
-        <v>-117.8147534152879</v>
+        <v>-116.0996218895949</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-151.1569529264334</v>
+        <v>-149.7069768612836</v>
       </c>
       <c r="C82">
-        <v>276.4055059442855</v>
+        <v>274.4278023838062</v>
       </c>
       <c r="D82">
-        <v>-125.7723099687941</v>
+        <v>-125.3106323960046</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-142.4589189772446</v>
+        <v>-143.0488193670288</v>
       </c>
       <c r="C83">
-        <v>278.9446788752606</v>
+        <v>284.0932029164151</v>
       </c>
       <c r="D83">
-        <v>-133.3657922580284</v>
+        <v>-136.4379768212548</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-134.5126443641842</v>
+        <v>-136.4800676325678</v>
       </c>
       <c r="C84">
-        <v>280.1679437649253</v>
+        <v>284.280160789436</v>
       </c>
       <c r="D84">
-        <v>-142.2170249275345</v>
+        <v>-143.0652556475409</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-124.7255559529553</v>
+        <v>-125.3481575555265</v>
       </c>
       <c r="C85">
-        <v>274.7969290391269</v>
+        <v>274.7305512028262</v>
       </c>
       <c r="D85">
-        <v>-150.6441854835283</v>
+        <v>-149.7305273568672</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-119.3610647880206</v>
+        <v>-116.4538277497407</v>
       </c>
       <c r="C86">
-        <v>275.9994508237317</v>
+        <v>268.9129469825555</v>
       </c>
       <c r="D86">
-        <v>-171.4542024314991</v>
+        <v>-170.3277422650956</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-89.18876827644196</v>
+        <v>-92.21831020176319</v>
       </c>
       <c r="C87">
-        <v>258.9789711938702</v>
+        <v>261.3645923484132</v>
       </c>
       <c r="D87">
-        <v>-201.7439764891776</v>
+        <v>-204.939403265989</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-49.09578579982532</v>
+        <v>-51.82469451736171</v>
       </c>
       <c r="C88">
-        <v>269.161563806892</v>
+        <v>269.8914164536383</v>
       </c>
       <c r="D88">
-        <v>-237.1258731692433</v>
+        <v>-236.2787687844542</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-16.41988862824795</v>
+        <v>-17.59646848328467</v>
       </c>
       <c r="C89">
-        <v>284.9826872831937</v>
+        <v>280.2527162499413</v>
       </c>
       <c r="D89">
-        <v>-261.0054920002303</v>
+        <v>-257.8377811603808</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-4.129738195104427</v>
+        <v>-3.26507228825601</v>
       </c>
       <c r="C90">
-        <v>281.7134617528991</v>
+        <v>283.0538309745295</v>
       </c>
       <c r="D90">
-        <v>-264.1279605161823</v>
+        <v>-270.0014873862467</v>
       </c>
     </row>
   </sheetData>
